--- a/data/trans_dic/P04B1_2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8728967591508183</v>
+        <v>0.8728967591508184</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8589290129530542</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8316783533514686</v>
+        <v>0.8335860043736452</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.820500010147735</v>
+        <v>0.8212701259607367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8386974764978737</v>
+        <v>0.8389426416939881</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9057416695555619</v>
+        <v>0.9103851184087411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8871289119194792</v>
+        <v>0.8894274403124451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8890228728816151</v>
+        <v>0.8915668557527928</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.858979133487816</v>
+        <v>0.8589791334878158</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8174105126733209</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8378890358833953</v>
+        <v>0.8378890358833951</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8179644731621724</v>
+        <v>0.8190552688693671</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7841461323103658</v>
+        <v>0.7830177436992609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8124749076742576</v>
+        <v>0.8111894800040399</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8947310528350624</v>
+        <v>0.8971813333860418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8470890137817768</v>
+        <v>0.846694027420084</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8589286786522545</v>
+        <v>0.8606291410773608</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7653830826203979</v>
+        <v>0.765383082620398</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7778454456760019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7719981889842438</v>
+        <v>0.7719981889842435</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7177598698195927</v>
+        <v>0.7233596962065705</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7401603664805362</v>
+        <v>0.740202819077578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7378859123968424</v>
+        <v>0.7422218120215719</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8083634986792195</v>
+        <v>0.8102275726668938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8126154526019675</v>
+        <v>0.8097443441536107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7970848684045927</v>
+        <v>0.7991426557241003</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7384966864458068</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7440127230711877</v>
+        <v>0.7440127230711878</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7414208782003183</v>
+        <v>0.7414208782003182</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6777491810359804</v>
+        <v>0.6783320929887526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7028025897326862</v>
+        <v>0.7000798296435891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7020020302629133</v>
+        <v>0.7049967319857179</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7968850653453776</v>
+        <v>0.7873156062252774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7852739581078162</v>
+        <v>0.7836214512833901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7731931808178081</v>
+        <v>0.7706584224197567</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6711187704267707</v>
+        <v>0.6711187704267708</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7768365625658787</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6096503680862413</v>
+        <v>0.6073652236753451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7277498378662729</v>
+        <v>0.7386681282693943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.689882095857326</v>
+        <v>0.6887877796472303</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7278529473847135</v>
+        <v>0.7306029872045096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8136244745421013</v>
+        <v>0.8164914639565729</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7617795965393405</v>
+        <v>0.7600948337216509</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8189776872984017</v>
+        <v>0.8189776872984016</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8820095824017005</v>
+        <v>0.8820095824017002</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8501322385772462</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7712165904667084</v>
+        <v>0.7769815181709768</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8436841233290342</v>
+        <v>0.846233902918783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8241724311970604</v>
+        <v>0.822332375161419</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8608558562054754</v>
+        <v>0.8583899743463681</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9118466049543497</v>
+        <v>0.9107512291816128</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8753865190577944</v>
+        <v>0.8747668977958534</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6969273766351325</v>
+        <v>0.6969273766351324</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.6417653081193496</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6550734607266301</v>
+        <v>0.6592206114292747</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6078322514291944</v>
+        <v>0.609104441125396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6424937184754351</v>
+        <v>0.642634816771102</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7343543223426328</v>
+        <v>0.7353116442121389</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.67059073940242</v>
+        <v>0.6722510034184809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6916949870817934</v>
+        <v>0.6916172438678302</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1166700704491622</v>
+        <v>0.1175648070641895</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1059916476809414</v>
+        <v>0.1060722705882742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1191750848455138</v>
+        <v>0.1177398440889806</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1703527115165898</v>
+        <v>0.1724248535414735</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.145048298001995</v>
+        <v>0.1476083624045164</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1503347034225407</v>
+        <v>0.1496291791321446</v>
       </c>
     </row>
     <row r="28">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.6301327103648724</v>
+        <v>0.6301327103648725</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.6208978866876076</v>
+        <v>0.6208978866876077</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.6253827974710194</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6108554873863492</v>
+        <v>0.612080781362375</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6065364816727153</v>
+        <v>0.6052384492704475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6137664964667463</v>
+        <v>0.6140143281902112</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6474212665950224</v>
+        <v>0.6476073703850245</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.635588635605546</v>
+        <v>0.6341591910174851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6375886493269699</v>
+        <v>0.6370759993356844</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>265176</v>
+        <v>265785</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>259328</v>
+        <v>259571</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>532494</v>
+        <v>532650</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>288791</v>
+        <v>290272</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>280387</v>
+        <v>281113</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>564446</v>
+        <v>566061</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>434050</v>
+        <v>434629</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>428531</v>
+        <v>427914</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>875150</v>
+        <v>873765</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>474786</v>
+        <v>476087</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>462929</v>
+        <v>462713</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>925187</v>
+        <v>927019</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>226104</v>
+        <v>227868</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>263779</v>
+        <v>263794</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>495414</v>
+        <v>498325</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>254646</v>
+        <v>255233</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>289601</v>
+        <v>288577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>535160</v>
+        <v>536541</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>252899</v>
+        <v>253116</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>295875</v>
+        <v>294729</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>557486</v>
+        <v>559865</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>297354</v>
+        <v>293783</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>330595</v>
+        <v>329899</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>614022</v>
+        <v>612009</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>125384</v>
+        <v>124914</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>166595</v>
+        <v>169094</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>299810</v>
+        <v>299335</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>149694</v>
+        <v>150259</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>186253</v>
+        <v>186910</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>331056</v>
+        <v>330324</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>208127</v>
+        <v>209683</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>222522</v>
+        <v>223194</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>439795</v>
+        <v>438813</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>232318</v>
+        <v>231653</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>240500</v>
+        <v>240211</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>467124</v>
+        <v>466793</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>467469</v>
+        <v>470428</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>467968</v>
+        <v>468947</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>953145</v>
+        <v>953355</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>524045</v>
+        <v>524728</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>516285</v>
+        <v>517563</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1026136</v>
+        <v>1026020</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>93111</v>
+        <v>93825</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>88042</v>
+        <v>88109</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>194104</v>
+        <v>191766</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>135954</v>
+        <v>137607</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>120485</v>
+        <v>122611</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>244854</v>
+        <v>243705</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2153187</v>
+        <v>2157506</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2264290</v>
+        <v>2259444</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>4454728</v>
+        <v>4456527</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2282076</v>
+        <v>2282732</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2372746</v>
+        <v>2367409</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4627630</v>
+        <v>4623909</v>
       </c>
     </row>
     <row r="40">
